--- a/Results/Results_Yulara_8_Site_5_Power.xlsx
+++ b/Results/Results_Yulara_8_Site_5_Power.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.214918573235889</v>
+        <v>0.1999146332477239</v>
       </c>
       <c r="D3" t="n">
-        <v>1.012617743277574</v>
+        <v>0.9419246634644478</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2921822195484154</v>
+        <v>0.2763937264113785</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>max\_depth: 4, max\_features: 2 \\</t>
+          <t>max\_depth: 2, max\_features: 6 \\</t>
         </is>
       </c>
     </row>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.213063844979004</v>
+        <v>0.2098865126194012</v>
       </c>
       <c r="D4" t="n">
-        <v>1.003878941816154</v>
+        <v>0.9889085133642006</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2870176651052886</v>
+        <v>0.2833951531294875</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2235364021146159</v>
+        <v>0.2235364021146156</v>
       </c>
       <c r="D5" t="n">
-        <v>1.053221802292756</v>
+        <v>1.053221802292754</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2944560654084199</v>
+        <v>0.2944560654084189</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2078253725857284</v>
+        <v>0.2078335327122884</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9791971750742987</v>
+        <v>0.9792356226073227</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2832968083223193</v>
+        <v>0.2833126417239996</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -620,13 +620,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2176946498865293</v>
+        <v>0.2106557187265478</v>
       </c>
       <c r="D7" t="n">
-        <v>1.025697601527198</v>
+        <v>0.9925327313208274</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2888702650076561</v>
+        <v>0.2837120684656571</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>learning\_rate: 0.01, max\_depth: 2, max\_features: 10, n\_estimators: 150 \\</t>
+          <t>learning\_rate: 0.05, max\_depth: 2, max\_features: 8, n\_estimators: 50 \\</t>
         </is>
       </c>
     </row>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2156381009144853</v>
+        <v>0.2115509307079892</v>
       </c>
       <c r="D10" t="n">
-        <v>1.016007894641208</v>
+        <v>0.9967506428896301</v>
       </c>
       <c r="E10" t="n">
-        <v>0.301079755215963</v>
+        <v>0.2961002766162041</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2118615523669203</v>
+        <v>0.2193257768158176</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9982141785838424</v>
+        <v>1.03338287528119</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2891540977221922</v>
+        <v>0.2952673527117101</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -765,13 +765,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2958493118070517</v>
+        <v>0.2992442535360612</v>
       </c>
       <c r="D12" t="n">
-        <v>1.393933795305194</v>
+        <v>1.409929519548232</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3709843386982898</v>
+        <v>0.3728801803282877</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3040260434987518</v>
+        <v>0.2207354344330774</v>
       </c>
       <c r="D13" t="n">
-        <v>1.432459565639374</v>
+        <v>1.040024666605651</v>
       </c>
       <c r="E13" t="n">
-        <v>0.375128324497796</v>
+        <v>0.296385546190199</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2206978445954983</v>
+        <v>0.2617386551353075</v>
       </c>
       <c r="D14" t="n">
-        <v>1.03984755703375</v>
+        <v>1.233216851857284</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2880402163439134</v>
+        <v>0.3465569932215036</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2174508256837226</v>
+        <v>0.2169132860162558</v>
       </c>
       <c r="D15" t="n">
-        <v>1.024548791025224</v>
+        <v>1.022016100635572</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2964691467835086</v>
+        <v>0.296112048433617</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -881,22 +881,20 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.216583680760151</v>
+        <v>0.2072415936425252</v>
       </c>
       <c r="D16" t="n">
-        <v>1.020463121171843</v>
+        <v>0.9764466221223643</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2850637710604426</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3]</t>
-        </is>
+        <v>0.2867524410915621</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>omega: 50, r: 0.7 \\</t>
+          <t>omega: 50, r: 0.1 \\</t>
         </is>
       </c>
     </row>
@@ -910,18 +908,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2249387599315904</v>
+        <v>0.2072415936425252</v>
       </c>
       <c r="D17" t="n">
-        <v>1.059829199627065</v>
+        <v>0.9764466221223643</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2985094983094279</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 358, 359, 360, 361, 362, 363, 364, 365, 366, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 403, 404, 404, 405, 406, 407, 408, 409, 410, 411, 412, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431]</t>
-        </is>
+        <v>0.2867524410915621</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -939,18 +935,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.2066931545771049</v>
+        <v>0.210084587743563</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9738625777543533</v>
+        <v>0.9898417709333728</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2837200297690329</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3]</t>
-        </is>
+        <v>0.2902756803086696</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -968,22 +962,20 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2099211703869738</v>
+        <v>0.2102132155796646</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9890718080941906</v>
+        <v>0.9904478182709984</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2903141413144821</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
+        <v>0.2911033245649785</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>alpha: 0.1, beta: 0.1, lambda1: 0.1, r: 0.1, s: 100 \\</t>
+          <t>alpha: 0.9, beta: 0.1, lambda1: 0.001, omega: 100, sigma: 0.1 \\</t>
         </is>
       </c>
     </row>
@@ -997,22 +989,20 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.3281305001176525</v>
+        <v>0.3036376979424972</v>
       </c>
       <c r="D20" t="n">
-        <v>1.546030952685449</v>
+        <v>1.430629823356678</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4171917810388949</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 15, 15, 15, 16, 17, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 33, 34, 35, 36, 37, 38, 39, 40, 41, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 81, 82, 82, 82, 82, 82, 83, 84, 84, 85, 86, 87, 88, 89, 90, 91, 91, 92, 93, 93, 94, 95, 95, 95, 95, 95, 96, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 109, 110, 111, 112, 113, 113, 114, 115, 116, 116, 117, 118, 119, 120, 121, 122, 123, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 151, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 160, 160, 161, 162, 163, 164, 165, 166, 167, 168, 168, 168, 169, 169, 170, 171, 172, 173, 174, 175, 176, 177, 177, 178, 178, 179, 180, 181, 181, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 195, 196, 197, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 244, 244, 245, 246, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 298, 299, 300, 301, 302, 303, 304, 304, 305, 306, 307, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 318, 319, 320, 321, 322, 323, 323, 324, 325, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 335, 335, 336, 337, 338, 339, 339, 340, 341, 342, 343, 344, 345, 346, 347, 347, 348, 349, 350, 351, 352, 352, 352, 352, 352, 353, 353, 354, 355, 356, 357, 357, 358, 359, 359, 359, 360, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 369, 370, 370, 371, 372]</t>
-        </is>
+        <v>0.4015482312448757</v>
+      </c>
+      <c r="F20" t="n">
+        <v>374</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>alpha: 0.001, lambda1: 0.5, omega: 10000, sigma: 0.001, w: 10 \\</t>
+          <t>alpha: 0.01, lambda1: 0.5, omega: 10000, sigma: 0.001, w: 50 \\</t>
         </is>
       </c>
     </row>
@@ -1026,22 +1016,20 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2091738555313552</v>
+        <v>0.2088349711560764</v>
       </c>
       <c r="D21" t="n">
-        <v>0.985550733711365</v>
+        <v>0.983954034430516</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2896421059176119</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
-        </is>
+        <v>0.2897794988032813</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.03, lambda1: 0.25, omega: 100, pi: 0.3, sigma: 0.1 \\</t>
+          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.05, lambda1: 0.75, omega: 100, pi: 0.5, sigma: 0.5 \\</t>
         </is>
       </c>
     </row>
@@ -1055,22 +1043,20 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2050141006878074</v>
+        <v>0.2256003631239277</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9659514896868009</v>
+        <v>1.062946431988526</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2825527194810757</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>[1, 2, 2, 2, 2, 2, 3, 3, 4, 4, 4, 4, 5, 5, 6, 6, 6, 6, 6, 6, 7, 8, 8, 9, 9, 10, 10, 11, 11, 12, 12, 12, 13, 13, 13, 13, 13, 13, 13, 13, 14, 14, 15, 15, 16, 16, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 18, 18, 18, 18, 18, 18, 19, 19, 20, 20, 21, 21, 21, 21, 21, 22, 23, 23, 24, 24, 22, 21, 21, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20]</t>
-        </is>
+        <v>0.2983880575498681</v>
+      </c>
+      <c r="F22" t="n">
+        <v>19</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>alpha: 0.05, beta: 0.25, e\_utility: 0.05, lambda1: 0.001, sigma: 50 \\</t>
+          <t>alpha: 0.1, beta: 0.1, e\_utility: 0.05, lambda1: 0.001, sigma: 50 \\</t>
         </is>
       </c>
     </row>
@@ -1084,20 +1070,20 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.3288355755039478</v>
+        <v>0.3560309811869754</v>
       </c>
       <c r="D23" t="n">
-        <v>1.549353010131491</v>
+        <v>1.6774878191228</v>
       </c>
       <c r="E23" t="n">
-        <v>0.393324261744442</v>
+        <v>0.4136158655623717</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>fuzzy\_operator: max, rules: 2 \\</t>
+          <t>fuzzy\_operator: min, rules: 2 \\</t>
         </is>
       </c>
     </row>
@@ -1111,13 +1097,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.2229147326761526</v>
+        <v>0.2189218688832968</v>
       </c>
       <c r="D24" t="n">
-        <v>1.050292723179847</v>
+        <v>1.031479808771102</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3153276993628779</v>
+        <v>0.3083392160051394</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1138,20 +1124,20 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.2139774360818339</v>
+        <v>0.2149236833916936</v>
       </c>
       <c r="D25" t="n">
-        <v>1.008183449085569</v>
+        <v>1.012641820463462</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2882516374150775</v>
+        <v>0.2801843194044386</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: min, rules: 5 \\</t>
+          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 14 \\</t>
         </is>
       </c>
     </row>
@@ -1165,20 +1151,20 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.2969843214710023</v>
+        <v>0.2333700016774168</v>
       </c>
       <c r="D26" t="n">
-        <v>1.399281545884416</v>
+        <v>1.09955412828791</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3635493746900082</v>
+        <v>0.3156199595167128</v>
       </c>
       <c r="F26" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>error\_metric: RMSE, fuzzy\_operator: min, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 15, sol\_per\_pop: 10 \\</t>
+          <t>error\_metric: RMSE, fuzzy\_operator: prod, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 5, sol\_per\_pop: 10 \\</t>
         </is>
       </c>
     </row>
@@ -1192,20 +1178,20 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.2208036519751684</v>
+        <v>0.2179841230615975</v>
       </c>
       <c r="D27" t="n">
-        <v>1.040346082723784</v>
+        <v>1.027061493297293</v>
       </c>
       <c r="E27" t="n">
-        <v>0.298568138789827</v>
+        <v>0.3014258757197226</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.99, rules: 1 \\</t>
+          <t>adaptive\_filter: RLS, error\_metric: MAE, fuzzy\_operator: minmax, lambda1: 0.99, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
     </row>
@@ -1219,20 +1205,20 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.2062462478784297</v>
+        <v>0.2071346074600338</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9717569167784106</v>
+        <v>0.9759425423444039</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2850269649386316</v>
+        <v>0.284029599924307</v>
       </c>
       <c r="F28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: min, rules: 5 \\</t>
+          <t>adaptive\_filter: wRLS, error\_metric: RMSE, fuzzy\_operator: max, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 13, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
     </row>
@@ -1246,13 +1232,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.3655422666875973</v>
+        <v>0.2724769316005904</v>
       </c>
       <c r="D29" t="n">
-        <v>1.722301519094359</v>
+        <v>1.283811684668829</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4245924414037409</v>
+        <v>0.3518008894852795</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1275,13 +1261,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.2063179347111292</v>
+        <v>0.2055663958294065</v>
       </c>
       <c r="D30" t="n">
-        <v>0.972094678925525</v>
+        <v>0.9685537024759927</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2771353913820698</v>
+        <v>0.2802669775120018</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1290,7 +1276,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>combination: weighted\_average, n\_estimators: 50 \\</t>
+          <t>combination: mean, n\_estimators: 50 \\</t>
         </is>
       </c>
     </row>
@@ -1304,13 +1290,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.207489089438693</v>
+        <v>0.2062990781373664</v>
       </c>
       <c r="D31" t="n">
-        <v>0.977612731829928</v>
+        <v>0.9720058336438813</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2797840005603842</v>
+        <v>0.2801898032974084</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
